--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_18-41.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_18-41.xlsx
@@ -95,6 +95,9 @@
     <t>CEFOTAX 2 GM VIAL</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -107,9 +110,6 @@
     <t>COLD FREE 20 TAB.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -263,6 +263,9 @@
     <t>OPLEX N PLUS 10 SUPP.</t>
   </si>
   <si>
+    <t>5:1</t>
+  </si>
+  <si>
     <t>ORCHADEXOLINE EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -338,19 +341,22 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>7:2</t>
+    <t>6:2</t>
   </si>
   <si>
     <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
   </si>
   <si>
+    <t>XORIN 1GM VIAL</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>ZOVIRAX 400MG 10 TAB.</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>5:0</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -1332,11 +1338,11 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1344,7 +1350,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1352,7 +1358,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1370,7 +1376,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1396,7 +1402,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1404,7 +1410,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1482,7 +1488,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -1560,7 +1566,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -2418,17 +2424,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2436,7 +2442,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2462,7 +2468,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2470,7 +2476,7 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
@@ -2488,7 +2494,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2514,7 +2520,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2540,7 +2546,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2548,7 +2554,7 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
@@ -2566,7 +2572,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2574,7 +2580,7 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
@@ -2592,7 +2598,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2618,7 +2624,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2644,7 +2650,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2670,7 +2676,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2678,7 +2684,7 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
@@ -2696,7 +2702,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2722,7 +2728,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2748,7 +2754,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2756,7 +2762,7 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
@@ -2774,7 +2780,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2800,7 +2806,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2826,7 +2832,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2852,7 +2858,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2878,7 +2884,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2904,7 +2910,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2930,7 +2936,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2956,7 +2962,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2964,17 +2970,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2982,7 +2988,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3008,7 +3014,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3016,17 +3022,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3034,7 +3040,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3042,13 +3048,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3060,7 +3066,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3068,13 +3074,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3094,13 +3100,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3112,7 +3118,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3120,17 +3126,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>119</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3138,7 +3144,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3146,17 +3152,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>42</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3178,11 +3184,11 @@
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3204,7 +3210,7 @@
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3224,13 +3230,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3242,7 +3248,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3250,51 +3256,77 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="92" ht="26.25" customHeight="1">
-      <c r="K92" s="10">
-        <v>5713.6700000000001</v>
-      </c>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="10"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="11">
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="6">
+        <v>89</v>
+      </c>
+      <c t="s" r="B92" s="7">
         <v>129</v>
       </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c t="s" r="F93" s="12">
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c t="s" r="H92" s="8">
         <v>130</v>
       </c>
-      <c r="G93" s="12"/>
-      <c r="H93" s="13"/>
-      <c t="s" r="I93" s="14">
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="9">
+        <v>30</v>
+      </c>
+      <c r="M92" s="9"/>
+      <c t="s" r="N92" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" ht="25.5" customHeight="1">
+      <c r="K93" s="10">
+        <v>5938.6700000000001</v>
+      </c>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+    </row>
+    <row r="94" ht="17.25" customHeight="1">
+      <c t="s" r="A94" s="11">
         <v>131</v>
       </c>
-      <c r="J93" s="14"/>
-      <c r="K93" s="14"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="14"/>
-      <c r="N93" s="14"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c t="s" r="F94" s="12">
+        <v>132</v>
+      </c>
+      <c r="G94" s="12"/>
+      <c r="H94" s="13"/>
+      <c t="s" r="I94" s="14">
+        <v>133</v>
+      </c>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="275">
+  <mergeCells count="278">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3566,10 +3598,13 @@
     <mergeCell ref="B91:G91"/>
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="I93:N93"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="I94:N94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
